--- a/graph_generation/results_prelim/gpt3.5/level_8/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_8/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>prompt</t>
   </si>
@@ -26,63 +28,216 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 what is the least cost path from node A to node P?
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 3 0 0 1 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 1 0 0 5 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 5 0 0 2 0 1 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 3 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
     <t>No possible path from A to P</t>
   </si>
   <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. 
-First, we initialize the cost array and visited array. The cost array will store the shortest distance from node A to each node, and the visited array will keep track of which nodes have been visited. 
-Start by setting the cost of node A to 0 and all other nodes to infinity. 
-Then, iterate through all the nodes and find the node with the smallest cost that has not been visited yet. 
-For each unvisited node, update its cost if the cost through the current node is less than its current cost. 
-Repeat this process until all nodes have been visited. 
-Finally, the least cost path from node A to node P can be found by backtracking from node P to node A using the updated cost array. 
-After applying Dijkstra's algorithm, here are the shortest distances from node A to each node:
-A: 0
-B: 5
-C: 1
-D: 4
-E: 3
-F: 1
-G: 3
-H: 1
-I: 10000
-J: 4
-K: 8
-L: 10000
-M: 4
-N: 9
-O: 6
-P: 9
-To find the least cost path from node A to node P, we can backtrack from node P to node A using the updated cost array. 
-Start from node P and compare the cost of the current node with the costs of its neighbors. Move to the neighbor with the lowest cost and continue until you reach node A. 
-The least cost path from node A to node P is: A -&gt; C -&gt; F -&gt; H -&gt; J -&gt; O -&gt; P</t>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm.
+1. Start at node A. Set the distance to A as 0 and the distance to all other nodes as infinity.
+2. Mark A as visited.
+3. For each neighbor of A (nodes B, E), update their distances. The distance from A to B is 5 and the distance from A to E is 5.
+4. Select the unvisited node with the smallest distance. In this case, it is node B.
+5. Mark B as visited.
+6. For each neighbor of B (nodes C, F), update their distances. The distance from A to C is 5 + 1 = 6 and the distance from A to F is 5 + 4 = 9.
+7. Select the unvisited node with the smallest distance. In this case, it is node C.
+8. Mark C as visited.
+9. For each neighbor of C (node G), update its distance. The distance from A to G is 6 + 4 = 10.
+10. Select the unvisited node with the smallest distance. In this case, there are no unvisited nodes left, so we stop.
+The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; G -&gt; P, with a total cost of 10.
+Note: If there are multiple paths with the same least cost, any of them can be considered as the least cost path.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node X?
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>No possible path from A to X</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node X, we can use Dijkstra's algorithm.
+Step 1: Initialize the distance from node A to all other nodes as infinity, except for node A itself which is 0. Set all nodes as unvisited.
+Step 2: Select the node with the smallest distance from the set of unvisited nodes. In this case, node A has the smallest distance.
+Step 3: Visit the selected node. Calculate the distances from the selected node to its neighboring nodes.
+Step 4: Update the distances of the neighboring nodes if a shorter distance is found. Mark the selected node as visited.
+Step 5: Repeat steps 2-4 until all nodes are visited.
+Using Dijkstra's algorithm, we can find the least cost path from node A to node X.</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 5 0 0 0 1 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 2 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 5 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>No possible path from A to Y</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node Y, we can use Dijkstra's algorithm.
+1. Initialize a list of distances and a list of previous nodes, both of size 25, to keep track of the shortest distance and the previous node in the path for each node. Initialize all distances to infinity except for node A, which is set to 0. Set all previous nodes to None.
+2. Create a set called unvisitedNodes to keep track of nodes that have not yet been visited. Add all nodes to the set.
+3. While unvisitedNodes is not empty, do the following steps:
+   - Choose the node with the minimum distance from the list of unvisited nodes. Call this node currNode.
+   - Remove currNode from the unvisitedNodes set.
+   - For each neighbor of currNode that is still in unvisitedNodes, do the following steps:
+      - Calculate the distance from currNode to the neighbor by adding the cost of travelling from currNode to the neighbor to the distance of currNode.
+      - If the calculated distance is smaller than the current distance of the neighbor, update the distance of the neighbor and set currNode as the previous node of the neighbor.
+4. After the while loop ends, we have the shortest distances and previous nodes for each node. To find the least cost path from node A to node Y, we can start from node Y and follow the previous nodes until we reach node A.
+Here is the implementation in Python:
+```python
+def dijkstra(adjacency_matrix, start_node, end_node):
+    num_nodes = len(adjacency_matrix)
+    distances = [float('inf')] * num_nodes
+    previous_nodes = [None] * num_nodes
+    unvisited_nodes = set(range(num_nodes))
+    distances[start_node] = 0
+    while unvisited_nodes:
+        curr_node = min(unvisited_nodes, key=lambda node: distances[node])
+        unvisited_nodes.remove(curr_node)
+        for neighbor in unvisited_nodes:
+            cost = adjacency_matrix[curr_node][neighbor]
+            if cost != 0:
+                new_distance = distances[curr_node] + cost
+                if new_distance &lt; distances[neighbor]:
+                    distances[neighbor] = new_distance
+                    previous_nodes[neighbor] = curr_node
+    path = []
+    curr_node = end_node
+    while curr_node is not None:
+        path.append(curr_node)
+        curr_node = previous_nodes[curr_node]
+    path.reverse()
+    return path
+adjacency_matrix = [
+    [0, 5, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 1, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 5, 0, 0, 0, 1, 0, 3, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 3, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 5, 0, 2, 0, 0, 0, 3, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 2, 0, 0, 0, 5, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 0, 0, 0, 0, 2, 0, 0],
+    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0]
+]
+start_node = 0
+end_node = 24
+least_cost_path = dijkstra(adjacency_matrix, start_node, end_node)
+labels = "ABCDEFGHIJKLMNOPQRSTUVWXYZ"
+path_nodes = [labels[node] for node in least_cost_path]
+path = ' -&gt; '.join(path_nodes)
+print("Least cost path from A to Y:", path)
+```
+The output will be:
+```
+Least cost path from A to Y: A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; M -&gt; O -&gt; P -&gt; Q -&gt; S -&gt; R -&gt; W -&gt; X -&gt; Y
+```</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>The fraction of nodes predicted correctly by the language model before a wrong node is encountered is 0/1</t>
   </si>
 </sst>
 </file>
@@ -440,13 +595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,19 +614,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_8/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_8/k_0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -34,43 +34,58 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node P?
+what is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ A 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 4 0 0 5 0 0 0 0 5 0 0
+ K 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
     <t>No possible path from A to P</t>
   </si>
   <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm.
-1. Start at node A. Set the distance to A as 0 and the distance to all other nodes as infinity.
-2. Mark A as visited.
-3. For each neighbor of A (nodes B, E), update their distances. The distance from A to B is 5 and the distance from A to E is 5.
-4. Select the unvisited node with the smallest distance. In this case, it is node B.
-5. Mark B as visited.
-6. For each neighbor of B (nodes C, F), update their distances. The distance from A to C is 5 + 1 = 6 and the distance from A to F is 5 + 4 = 9.
-7. Select the unvisited node with the smallest distance. In this case, it is node C.
-8. Mark C as visited.
-9. For each neighbor of C (node G), update its distance. The distance from A to G is 6 + 4 = 10.
-10. Select the unvisited node with the smallest distance. In this case, there are no unvisited nodes left, so we stop.
-The least cost path from node A to node P is A -&gt; B -&gt; C -&gt; G -&gt; P, with a total cost of 10.
-Note: If there are multiple paths with the same least cost, any of them can be considered as the least cost path.</t>
+    <t>The least cost path from node A to node P can be found using Dijkstra's algorithm. Here is the step-by-step process:
+1. Create an empty set to keep track of visited nodes and a dictionary to store the minimum cost to reach each node. Initialize the cost of reaching all nodes except node A as infinity, and the cost of reaching node A as 0.
+visited = set()
+min_cost = {node: float('inf') for node in ['A', 'B', 'C', 'D', 'E', 'F', 'G', 'H', 'I', 'J', 'K', 'L', 'M', 'N', 'O', 'P']}
+min_cost['A'] = 0
+2. While the visited set does not contain all the nodes:
+   a. Find the node with the minimum cost that has not been visited yet and assign it to the variable "current_node".
+   b. Mark the current_node as visited.
+   c. For each neighboring node of the current_node that has not been visited:
+        - Calculate the total cost to reach the neighboring node by adding the cost to reach the current_node and the edge weight between the current_node and the neighboring node.
+        - If the total cost is less than the current cost stored in the min_cost dictionary for the neighboring node, update the cost in the min_cost dictionary.
+while len(visited) &lt; 16:
+    current_node = min((node for node in min_cost if node not in visited), key=min_cost.get)
+    visited.add(current_node)
+    for neighbor_node in [node for node in min_cost if node not in visited and adjacency_matrix[current_node][node] != 0]:
+        total_cost = min_cost[current_node] + adjacency_matrix[current_node][neighbor_node]
+        if total_cost &lt; min_cost[neighbor_node]:
+            min_cost[neighbor_node] = total_cost
+3. After the algorithm terminates, the minimum cost to reach node P will be stored in min_cost['P']. To obtain the sequence of nodes in the least cost path from node A to node P, we can backtrack from node P to node A using the information stored in the min_cost dictionary.
+current_node = 'P'
+path = [current_node]
+while current_node != 'A':
+    neighbors = [node for node in min_cost if adjacency_matrix[node][current_node] != 0]
+    current_node = min(neighbors, key=min_cost.get)
+    path.append(current_node)
+path.reverse()
+The sequence of nodes in the least cost path from node A to node P is:
+['A', 'B', 'F', 'G', 'H', 'L', 'M', 'N', 'O', 'P']</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -79,165 +94,128 @@
     <t>Output: 0/1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node X?
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node W? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 1 0 3 0 0 0 4 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 2 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>No possible path from A to X</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node X, we can use Dijkstra's algorithm.
-Step 1: Initialize the distance from node A to all other nodes as infinity, except for node A itself which is 0. Set all nodes as unvisited.
-Step 2: Select the node with the smallest distance from the set of unvisited nodes. In this case, node A has the smallest distance.
-Step 3: Visit the selected node. Calculate the distances from the selected node to its neighboring nodes.
-Step 4: Update the distances of the neighboring nodes if a shorter distance is found. Mark the selected node as visited.
-Step 5: Repeat steps 2-4 until all nodes are visited.
-Using Dijkstra's algorithm, we can find the least cost path from node A to node X.</t>
+    <t>No possible path from A to W</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node W is A - B - C - I - O - P - R - W.
+Sequence of nodes: A -&gt; B -&gt; C -&gt; I -&gt; O -&gt; P -&gt; R -&gt; W</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+what is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 5 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 2 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>No possible path from A to Y</t>
+  </si>
+  <si>
+    <t>The adjacency matrix for the given weighted directed graph is:
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 5 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 2 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. Starting from node A, we will calculate the minimum cost to reach each node from A. 
+Here is the step-by-step process:
+1. Initialize a distance array, dist[], with infinity for all nodes except A which will be 0.
+   dist[A] = 0
+   dist[B] = inf
+   dist[C] = inf
+   ...
+   dist[Y] = inf
+2. Create an empty set, visited[], to keep track of visited nodes.
+3. While visited[] does not contain all nodes:
+   a. Find the node, u, with the minimum distance from the distance array, dist[], that is not visited.
+   b. Mark node u as visited.
+   c. Update the distance of its adjacent nodes, v, if the new distance is smaller:
+      dist[v] = min(dist[v], dist[u] + cost[u][v])
+4. Reconstruct the shortest path from node A to node Y using the distance array and the adjacency matrix.
+Using Dijkstra's algorithm with the given adjacency matrix, the least cost path from node A to node Y is:
+A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y
+Therefore, the sequence of nodes in the least cost path from node A to node Y is:
+A, B, G, H, I, J, N, P, Q, R, S, U, V, W, X, Y</t>
   </si>
   <si>
     <t>0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node Y?
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 5 0 0 0 1 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 2 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 5 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>No possible path from A to Y</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node Y, we can use Dijkstra's algorithm.
-1. Initialize a list of distances and a list of previous nodes, both of size 25, to keep track of the shortest distance and the previous node in the path for each node. Initialize all distances to infinity except for node A, which is set to 0. Set all previous nodes to None.
-2. Create a set called unvisitedNodes to keep track of nodes that have not yet been visited. Add all nodes to the set.
-3. While unvisitedNodes is not empty, do the following steps:
-   - Choose the node with the minimum distance from the list of unvisited nodes. Call this node currNode.
-   - Remove currNode from the unvisitedNodes set.
-   - For each neighbor of currNode that is still in unvisitedNodes, do the following steps:
-      - Calculate the distance from currNode to the neighbor by adding the cost of travelling from currNode to the neighbor to the distance of currNode.
-      - If the calculated distance is smaller than the current distance of the neighbor, update the distance of the neighbor and set currNode as the previous node of the neighbor.
-4. After the while loop ends, we have the shortest distances and previous nodes for each node. To find the least cost path from node A to node Y, we can start from node Y and follow the previous nodes until we reach node A.
-Here is the implementation in Python:
-```python
-def dijkstra(adjacency_matrix, start_node, end_node):
-    num_nodes = len(adjacency_matrix)
-    distances = [float('inf')] * num_nodes
-    previous_nodes = [None] * num_nodes
-    unvisited_nodes = set(range(num_nodes))
-    distances[start_node] = 0
-    while unvisited_nodes:
-        curr_node = min(unvisited_nodes, key=lambda node: distances[node])
-        unvisited_nodes.remove(curr_node)
-        for neighbor in unvisited_nodes:
-            cost = adjacency_matrix[curr_node][neighbor]
-            if cost != 0:
-                new_distance = distances[curr_node] + cost
-                if new_distance &lt; distances[neighbor]:
-                    distances[neighbor] = new_distance
-                    previous_nodes[neighbor] = curr_node
-    path = []
-    curr_node = end_node
-    while curr_node is not None:
-        path.append(curr_node)
-        curr_node = previous_nodes[curr_node]
-    path.reverse()
-    return path
-adjacency_matrix = [
-    [0, 5, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 1, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 5, 0, 0, 0, 1, 0, 3, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 3, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 4, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 3, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0, 5, 0, 2, 0, 0, 0, 3, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 2, 0, 0, 0, 5, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 5, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 4, 0, 0, 0, 0, 2, 0, 0],
-    [0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0]
-]
-start_node = 0
-end_node = 24
-least_cost_path = dijkstra(adjacency_matrix, start_node, end_node)
-labels = "ABCDEFGHIJKLMNOPQRSTUVWXYZ"
-path_nodes = [labels[node] for node in least_cost_path]
-path = ' -&gt; '.join(path_nodes)
-print("Least cost path from A to Y:", path)
-```
-The output will be:
-```
-Least cost path from A to Y: A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; M -&gt; O -&gt; P -&gt; Q -&gt; S -&gt; R -&gt; W -&gt; X -&gt; Y
-```</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>The fraction of nodes predicted correctly by the language model before a wrong node is encountered is 0/1</t>
   </si>
 </sst>
 </file>
@@ -723,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_8/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_8/k_0.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
-    <sheet name="o_20" sheetId="2" r:id="rId2"/>
-    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>prompt</t>
   </si>
@@ -34,188 +32,48 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node P? Return the sequence of nodes in response.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 4 0 0 5 0 0 0 0 5 0 0
- K 0 0 0 0 0 0 3 0 0 4 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ A 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 5 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0
     </t>
   </si>
   <si>
     <t>No possible path from A to P</t>
   </si>
   <si>
-    <t>The least cost path from node A to node P can be found using Dijkstra's algorithm. Here is the step-by-step process:
-1. Create an empty set to keep track of visited nodes and a dictionary to store the minimum cost to reach each node. Initialize the cost of reaching all nodes except node A as infinity, and the cost of reaching node A as 0.
-visited = set()
-min_cost = {node: float('inf') for node in ['A', 'B', 'C', 'D', 'E', 'F', 'G', 'H', 'I', 'J', 'K', 'L', 'M', 'N', 'O', 'P']}
-min_cost['A'] = 0
-2. While the visited set does not contain all the nodes:
-   a. Find the node with the minimum cost that has not been visited yet and assign it to the variable "current_node".
-   b. Mark the current_node as visited.
-   c. For each neighboring node of the current_node that has not been visited:
-        - Calculate the total cost to reach the neighboring node by adding the cost to reach the current_node and the edge weight between the current_node and the neighboring node.
-        - If the total cost is less than the current cost stored in the min_cost dictionary for the neighboring node, update the cost in the min_cost dictionary.
-while len(visited) &lt; 16:
-    current_node = min((node for node in min_cost if node not in visited), key=min_cost.get)
-    visited.add(current_node)
-    for neighbor_node in [node for node in min_cost if node not in visited and adjacency_matrix[current_node][node] != 0]:
-        total_cost = min_cost[current_node] + adjacency_matrix[current_node][neighbor_node]
-        if total_cost &lt; min_cost[neighbor_node]:
-            min_cost[neighbor_node] = total_cost
-3. After the algorithm terminates, the minimum cost to reach node P will be stored in min_cost['P']. To obtain the sequence of nodes in the least cost path from node A to node P, we can backtrack from node P to node A using the information stored in the min_cost dictionary.
-current_node = 'P'
-path = [current_node]
-while current_node != 'A':
-    neighbors = [node for node in min_cost if adjacency_matrix[node][current_node] != 0]
-    current_node = min(neighbors, key=min_cost.get)
-    path.append(current_node)
-path.reverse()
-The sequence of nodes in the least cost path from node A to node P is:
-['A', 'B', 'F', 'G', 'H', 'L', 'M', 'N', 'O', 'P']</t>
+    <t>To find the least cost path from node A to node P, we can use the Dijkstra's algorithm. 
+First, we initialize the cost of reaching each node from A to infinity, except for node A which has a cost of 0. We also initialize a list to keep track of the previous node in the path.
+Start by visiting node A and update the costs to reach its neighbors. In this case, nodes B and E are the neighbors of A with costs 5 and 5 respectively. Update the cost of reaching B and E to 5 and mark A as the previous node for these nodes.
+Next, move to the node with the minimum cost that has not been visited, which is B. Update the costs of reaching its neighbors. In this case, node F is the neighbor of B with a cost of 2. Update the cost of reaching F to be 7 (5+2) and mark B as the previous node for F.
+Move to node E, which has a cost of 5. Update the cost of reaching its neighbor, node I, with a cost of 4. Update the cost of reaching I to be 9 (5+4) and mark E as the previous node for I.
+Next, move to node F with a cost of 7. Update the cost of reaching its neighbor, node J, with a cost of 1. Update the cost of reaching J to be 8 (7+1) and mark F as the previous node for J.
+Move to node I with a cost of 9. There are no neighbors for I in this case that have a cost greater than 0, so no further updates are made.
+Move to node J with a cost of 8. Update the cost of reaching its neighbor, node K, with a cost of 1. Update the cost of reaching K to be 9 (8+1) and mark J as the previous node for K.
+Next, move to node K with a cost of 9. Update the cost of reaching its neighbor, node P, with a cost of 2. Update the cost of reaching P to be 11 (9+2) and mark K as the previous node for P.
+Finally, move to node P with a cost of 11. There are no neighbors for P in this case that have a cost greater than 0, so no further updates are made.
+To obtain the least cost path from node A to node P, we can backtrack from node P using the previous node list. Starting from node P, the previous node is K. The previous node for K is J, and so on, until we reach node A. The sequence of nodes in the least cost path from node A to node P is: A, E, I, J, K, P.
+Therefore, the least cost path from node A to node P is A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; P.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node W? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 1 0 3 0 0 0 4 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 2 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>No possible path from A to W</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node W is A - B - C - I - O - P - R - W.
-Sequence of nodes: A -&gt; B -&gt; C -&gt; I -&gt; O -&gt; P -&gt; R -&gt; W</t>
-  </si>
-  <si>
-    <t>0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-what is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 5 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 2 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>No possible path from A to Y</t>
-  </si>
-  <si>
-    <t>The adjacency matrix for the given weighted directed graph is:
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 5 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 2 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-To find the least cost path from node A to node Y, we can use Dijkstra's algorithm. Starting from node A, we will calculate the minimum cost to reach each node from A. 
-Here is the step-by-step process:
-1. Initialize a distance array, dist[], with infinity for all nodes except A which will be 0.
-   dist[A] = 0
-   dist[B] = inf
-   dist[C] = inf
-   ...
-   dist[Y] = inf
-2. Create an empty set, visited[], to keep track of visited nodes.
-3. While visited[] does not contain all nodes:
-   a. Find the node, u, with the minimum distance from the distance array, dist[], that is not visited.
-   b. Mark node u as visited.
-   c. Update the distance of its adjacent nodes, v, if the new distance is smaller:
-      dist[v] = min(dist[v], dist[u] + cost[u][v])
-4. Reconstruct the shortest path from node A to node Y using the distance array and the adjacency matrix.
-Using Dijkstra's algorithm with the given adjacency matrix, the least cost path from node A to node Y is:
-A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; N -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y
-Therefore, the sequence of nodes in the least cost path from node A to node Y is:
-A, B, G, H, I, J, N, P, Q, R, S, U, V, W, X, Y</t>
-  </si>
-  <si>
-    <t>0/1</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -616,98 +474,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>